--- a/database_data/photos.xlsx
+++ b/database_data/photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\College\Thesis\Web Project\elementary-seeker\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0310B82-D31A-4068-8505-3382E4C33268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E1A3D-C021-4E34-B993-0BD2C2DEA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,58 +42,58 @@
     <t>photo_url3</t>
   </si>
   <si>
-    <t>images\jakarta\jakarta_utara\SD_JU_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_utara\SD_JU_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_utara\SD_JU_3.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_timur\SD_JT_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_timur\SD_JT_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_timur\SD_JT_3.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_selatan\SD_JS_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_selatan\SD_JS_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_selatan\SD_JS_3.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_barat\SD_JB_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_barat\SD_JB_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_barat\SD_JB_3.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_pusat\SD_JP_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_pusat\SD_JP_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\jakarta_pusat\SD_JP_3.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\kepulauan_seribu\SD_KS_1.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\kepulauan_seribu\SD_KS_2.jpg</t>
-  </si>
-  <si>
-    <t>images\jakarta\kepulauan_seribu\SD_KS_3.jpg</t>
+    <t>images/jakarta/jakarta_utara/SD_JU_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_utara/SD_JU_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_utara/SD_JU_3.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_timur/SD_JT_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_timur/SD_JT_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_timur/SD_JT_3.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_selatan/SD_JS_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_selatan/SD_JS_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_selatan/SD_JS_3.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_barat/SD_JB_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_barat/SD_JB_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_barat/SD_JB_3.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_pusat/SD_JP_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_pusat/SD_JP_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/jakarta_pusat/SD_JP_3.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/kepulauan_seribu/SD_KS_1.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/kepulauan_seribu/SD_KS_2.jpg</t>
+  </si>
+  <si>
+    <t>images/jakarta/kepulauan_seribu/SD_KS_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/database_data/photos.xlsx
+++ b/database_data/photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\College\Thesis\Web Project\elementary-seeker\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E1A3D-C021-4E34-B993-0BD2C2DEA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC6B1D-6A79-4F5E-8BDD-A5B7E7494AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,58 +42,58 @@
     <t>photo_url3</t>
   </si>
   <si>
-    <t>images/jakarta/jakarta_utara/SD_JU_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_utara/SD_JU_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_utara/SD_JU_3.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_timur/SD_JT_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_timur/SD_JT_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_timur/SD_JT_3.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_selatan/SD_JS_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_selatan/SD_JS_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_selatan/SD_JS_3.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_barat/SD_JB_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_barat/SD_JB_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_barat/SD_JB_3.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_pusat/SD_JP_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_pusat/SD_JP_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/jakarta_pusat/SD_JP_3.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/kepulauan_seribu/SD_KS_1.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/kepulauan_seribu/SD_KS_2.jpg</t>
-  </si>
-  <si>
-    <t>images/jakarta/kepulauan_seribu/SD_KS_3.jpg</t>
+    <t>/images/jakarta/jakarta_utara/SD_JU_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_utara/SD_JU_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_utara/SD_JU_3.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_timur/SD_JT_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_timur/SD_JT_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_timur/SD_JT_3.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_selatan/SD_JS_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_selatan/SD_JS_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_selatan/SD_JS_3.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_barat/SD_JB_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_barat/SD_JB_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_barat/SD_JB_3.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_pusat/SD_JP_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_pusat/SD_JP_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/jakarta_pusat/SD_JP_3.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/kepulauan_seribu/SD_KS_1.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/kepulauan_seribu/SD_KS_2.jpg</t>
+  </si>
+  <si>
+    <t>/images/jakarta/kepulauan_seribu/SD_KS_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
